--- a/database/industries/chemical/sharum/product/yearly_seprated.xlsx
+++ b/database/industries/chemical/sharum/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\chemical\sharum\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\sharum\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E13069-BF36-4FA2-BCB3-D44200FF19D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="50">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -60,13 +61,13 @@
     <t>تن</t>
   </si>
   <si>
+    <t>کریستال ملامین</t>
+  </si>
+  <si>
+    <t>اسید کلریدریک</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>کریستال ملامین</t>
-  </si>
-  <si>
-    <t>اسید کلریدریک</t>
   </si>
   <si>
     <t>سولفات آمونیوم</t>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,7 +368,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -379,7 +380,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -426,6 +427,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -461,6 +479,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,17 +647,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -632,7 +667,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -644,7 +679,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -656,7 +691,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -666,7 +701,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -678,7 +713,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -690,7 +725,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -700,7 +735,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -722,7 +757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -732,7 +767,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -744,7 +779,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -752,71 +787,71 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>21501</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>16047</v>
+      </c>
+      <c r="H11" s="11">
+        <v>13989</v>
+      </c>
+      <c r="I11" s="11">
+        <v>11468</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>21501</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>16047</v>
-      </c>
-      <c r="I11" s="11">
-        <v>13989</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>4371</v>
       </c>
       <c r="F12" s="13">
-        <v>4371</v>
+        <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>0</v>
+        <v>3689</v>
       </c>
       <c r="H12" s="13">
-        <v>3689</v>
+        <v>2317</v>
       </c>
       <c r="I12" s="13">
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -824,23 +859,23 @@
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="13">
+        <v>43134</v>
       </c>
       <c r="F14" s="13">
-        <v>43134</v>
+        <v>0</v>
       </c>
       <c r="G14" s="13">
-        <v>0</v>
+        <v>46976</v>
       </c>
       <c r="H14" s="13">
-        <v>46976</v>
+        <v>23717</v>
       </c>
       <c r="I14" s="13">
-        <v>23717</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23588</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -849,44 +884,44 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1660</v>
       </c>
       <c r="H15" s="11">
-        <v>1660</v>
+        <v>17392</v>
       </c>
       <c r="I15" s="11">
-        <v>17392</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15">
-        <v>0</v>
+        <v>69006</v>
       </c>
       <c r="F16" s="15">
-        <v>69006</v>
+        <v>0</v>
       </c>
       <c r="G16" s="15">
-        <v>0</v>
+        <v>68372</v>
       </c>
       <c r="H16" s="15">
-        <v>68372</v>
+        <v>57415</v>
       </c>
       <c r="I16" s="15">
-        <v>57415</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>58177</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
@@ -898,31 +933,31 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>13</v>
+      <c r="E18" s="11">
+        <v>24</v>
       </c>
       <c r="F18" s="11">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G18" s="11">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="H18" s="11">
-        <v>320</v>
+        <v>1307</v>
       </c>
       <c r="I18" s="11">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
@@ -931,44 +966,44 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1944</v>
       </c>
       <c r="I19" s="13">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F20" s="17">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G20" s="17">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="H20" s="17">
-        <v>320</v>
+        <v>3251</v>
       </c>
       <c r="I20" s="17">
-        <v>3251</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>21</v>
       </c>
@@ -980,7 +1015,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>22</v>
       </c>
@@ -1002,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
@@ -1010,30 +1045,30 @@
         <v>24</v>
       </c>
       <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
-        <v>13</v>
+      <c r="E23" s="15">
+        <v>0</v>
       </c>
       <c r="F23" s="15">
         <v>0</v>
       </c>
       <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15">
         <v>-2266</v>
       </c>
+      <c r="H23" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="I23" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="17" t="s">
-        <v>13</v>
+      <c r="E24" s="17">
+        <v>0</v>
       </c>
       <c r="F24" s="17">
         <v>0</v>
@@ -1045,32 +1080,32 @@
         <v>0</v>
       </c>
       <c r="I24" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5404</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
-        <v>0</v>
+        <v>69030</v>
       </c>
       <c r="F25" s="15">
-        <v>69030</v>
+        <v>0</v>
       </c>
       <c r="G25" s="15">
-        <v>0</v>
+        <v>66426</v>
       </c>
       <c r="H25" s="15">
-        <v>66426</v>
+        <v>60666</v>
       </c>
       <c r="I25" s="15">
-        <v>60666</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>59173</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1080,7 +1115,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1090,7 +1125,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1100,7 +1135,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>27</v>
       </c>
@@ -1122,7 +1157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1132,7 +1167,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1144,7 +1179,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>11</v>
       </c>
@@ -1152,71 +1187,71 @@
         <v>29</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="11">
+        <v>143977</v>
+      </c>
+      <c r="F32" s="11">
+        <v>128434</v>
+      </c>
+      <c r="G32" s="11">
+        <v>145561</v>
+      </c>
+      <c r="H32" s="11">
+        <v>280136</v>
+      </c>
+      <c r="I32" s="11">
+        <v>404729</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F32" s="11">
-        <v>143977</v>
-      </c>
-      <c r="G32" s="11">
-        <v>128434</v>
-      </c>
-      <c r="H32" s="11">
-        <v>145561</v>
-      </c>
-      <c r="I32" s="11">
-        <v>280136</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="13"/>
-      <c r="E33" s="13" t="s">
-        <v>13</v>
+      <c r="E33" s="13">
+        <v>426769</v>
       </c>
       <c r="F33" s="13">
-        <v>426769</v>
+        <v>427384</v>
       </c>
       <c r="G33" s="13">
-        <v>427384</v>
+        <v>816493</v>
       </c>
       <c r="H33" s="13">
-        <v>816493</v>
+        <v>1375842</v>
       </c>
       <c r="I33" s="13">
-        <v>1375842</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2096203</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>16</v>
       </c>
@@ -1224,23 +1259,23 @@
         <v>29</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="13" t="s">
-        <v>13</v>
+      <c r="E35" s="13">
+        <v>519604</v>
       </c>
       <c r="F35" s="13">
-        <v>519604</v>
+        <v>638504</v>
       </c>
       <c r="G35" s="13">
-        <v>638504</v>
+        <v>1036851</v>
       </c>
       <c r="H35" s="13">
-        <v>1036851</v>
+        <v>1083012</v>
       </c>
       <c r="I35" s="13">
-        <v>1083012</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2334358</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>17</v>
       </c>
@@ -1249,44 +1284,44 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G36" s="11">
+        <v>371216</v>
       </c>
       <c r="H36" s="11">
-        <v>371216</v>
+        <v>2533237</v>
       </c>
       <c r="I36" s="11">
-        <v>2533237</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5987033</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>0</v>
+        <v>1090350</v>
       </c>
       <c r="F37" s="15">
-        <v>1090350</v>
+        <v>1194322</v>
       </c>
       <c r="G37" s="15">
-        <v>1194322</v>
+        <v>2370121</v>
       </c>
       <c r="H37" s="15">
-        <v>2370121</v>
+        <v>5272227</v>
       </c>
       <c r="I37" s="15">
-        <v>5272227</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10822323</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>30</v>
       </c>
@@ -1298,31 +1333,31 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>13</v>
+      <c r="E39" s="11">
+        <v>1403</v>
       </c>
       <c r="F39" s="11">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="G39" s="11">
-        <v>0</v>
+        <v>74002</v>
       </c>
       <c r="H39" s="11">
-        <v>74002</v>
+        <v>600820</v>
       </c>
       <c r="I39" s="11">
-        <v>600820</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>16</v>
       </c>
@@ -1331,44 +1366,44 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H40" s="13">
+        <v>111729</v>
       </c>
       <c r="I40" s="13">
-        <v>111729</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>660407</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17">
-        <v>0</v>
+        <v>1403</v>
       </c>
       <c r="F41" s="17">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="G41" s="17">
-        <v>0</v>
+        <v>74002</v>
       </c>
       <c r="H41" s="17">
-        <v>74002</v>
+        <v>712549</v>
       </c>
       <c r="I41" s="17">
-        <v>712549</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>660407</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>31</v>
       </c>
@@ -1380,7 +1415,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>22</v>
       </c>
@@ -1402,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>23</v>
       </c>
@@ -1410,23 +1445,23 @@
         <v>29</v>
       </c>
       <c r="D44" s="15"/>
-      <c r="E44" s="15" t="s">
-        <v>13</v>
+      <c r="E44" s="15">
+        <v>0</v>
       </c>
       <c r="F44" s="15">
         <v>0</v>
       </c>
       <c r="G44" s="15">
-        <v>0</v>
-      </c>
-      <c r="H44" s="15">
         <v>-196522</v>
       </c>
+      <c r="H44" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="I44" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
         <v>25</v>
       </c>
@@ -1434,45 +1469,45 @@
         <v>29</v>
       </c>
       <c r="D45" s="17"/>
-      <c r="E45" s="17" t="s">
-        <v>13</v>
+      <c r="E45" s="17">
+        <v>0</v>
       </c>
       <c r="F45" s="17">
         <v>0</v>
       </c>
       <c r="G45" s="17">
-        <v>0</v>
+        <v>-292</v>
       </c>
       <c r="H45" s="17">
-        <v>-292</v>
+        <v>-341412</v>
       </c>
       <c r="I45" s="17">
-        <v>-341412</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1721383</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15">
-        <v>0</v>
+        <v>1091753</v>
       </c>
       <c r="F46" s="15">
-        <v>1091753</v>
+        <v>1194322</v>
       </c>
       <c r="G46" s="15">
-        <v>1194322</v>
+        <v>2247309</v>
       </c>
       <c r="H46" s="15">
-        <v>2247309</v>
+        <v>5643364</v>
       </c>
       <c r="I46" s="15">
-        <v>5643364</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9761347</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1482,7 +1517,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1492,7 +1527,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1502,7 +1537,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>32</v>
       </c>
@@ -1524,7 +1559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1534,7 +1569,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>33</v>
       </c>
@@ -1546,7 +1581,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>11</v>
       </c>
@@ -1554,71 +1589,71 @@
         <v>34</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="11">
+        <v>6696293</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
+        <v>9070917</v>
+      </c>
+      <c r="H53" s="11">
+        <v>20025449</v>
+      </c>
+      <c r="I53" s="11">
+        <v>35292030</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F53" s="11">
-        <v>6696293</v>
-      </c>
-      <c r="G53" s="11">
-        <v>0</v>
-      </c>
-      <c r="H53" s="11">
-        <v>9070917</v>
-      </c>
-      <c r="I53" s="11">
-        <v>20025449</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="13"/>
-      <c r="E54" s="13" t="s">
-        <v>13</v>
+      <c r="E54" s="13">
+        <v>97636468</v>
       </c>
       <c r="F54" s="13">
-        <v>97636468</v>
+        <v>0</v>
       </c>
       <c r="G54" s="13">
-        <v>0</v>
+        <v>221331797</v>
       </c>
       <c r="H54" s="13">
-        <v>221331797</v>
+        <v>593803194</v>
       </c>
       <c r="I54" s="13">
-        <v>593803194</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>523135263</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>16</v>
       </c>
@@ -1626,23 +1661,23 @@
         <v>34</v>
       </c>
       <c r="D56" s="13"/>
-      <c r="E56" s="13" t="s">
-        <v>13</v>
+      <c r="E56" s="13">
+        <v>12046274</v>
       </c>
       <c r="F56" s="13">
-        <v>12046274</v>
+        <v>0</v>
       </c>
       <c r="G56" s="13">
-        <v>0</v>
+        <v>22071930</v>
       </c>
       <c r="H56" s="13">
-        <v>22071930</v>
+        <v>45663954</v>
       </c>
       <c r="I56" s="13">
-        <v>45663954</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>98963795</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>17</v>
       </c>
@@ -1651,22 +1686,22 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G57" s="11">
+        <v>223624096</v>
       </c>
       <c r="H57" s="11">
-        <v>223624096</v>
+        <v>145655301</v>
       </c>
       <c r="I57" s="11">
-        <v>145655301</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>313227634</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>35</v>
       </c>
@@ -1678,31 +1713,31 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>13</v>
+      <c r="E59" s="11">
+        <v>58458333</v>
       </c>
       <c r="F59" s="11">
-        <v>58458333</v>
+        <v>0</v>
       </c>
       <c r="G59" s="11">
-        <v>0</v>
+        <v>231256250</v>
       </c>
       <c r="H59" s="11">
-        <v>231256250</v>
+        <v>459693956</v>
       </c>
       <c r="I59" s="11">
-        <v>459693956</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>16</v>
       </c>
@@ -1711,22 +1746,22 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H60" s="13">
+        <v>57473765</v>
       </c>
       <c r="I60" s="13">
-        <v>57473765</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>103188594</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1736,7 +1771,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1746,7 +1781,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1756,7 +1791,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>36</v>
       </c>
@@ -1778,7 +1813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1788,7 +1823,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>37</v>
       </c>
@@ -1800,7 +1835,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>11</v>
       </c>
@@ -1808,71 +1843,71 @@
         <v>29</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="11">
+        <v>-95043</v>
+      </c>
+      <c r="F67" s="11">
+        <v>-78023</v>
+      </c>
+      <c r="G67" s="11">
+        <v>-119888</v>
+      </c>
+      <c r="H67" s="11">
+        <v>-209821</v>
+      </c>
+      <c r="I67" s="11">
+        <v>-256173</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F67" s="11">
-        <v>-95043</v>
-      </c>
-      <c r="G67" s="11">
-        <v>-78023</v>
-      </c>
-      <c r="H67" s="11">
-        <v>-119888</v>
-      </c>
-      <c r="I67" s="11">
-        <v>-209821</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D68" s="13"/>
-      <c r="E68" s="13" t="s">
-        <v>13</v>
+      <c r="E68" s="13">
+        <v>-266742</v>
       </c>
       <c r="F68" s="13">
-        <v>-266742</v>
+        <v>-380664</v>
       </c>
       <c r="G68" s="13">
-        <v>-380664</v>
+        <v>-677591</v>
       </c>
       <c r="H68" s="13">
-        <v>-677591</v>
+        <v>-1050083</v>
       </c>
       <c r="I68" s="13">
-        <v>-1050083</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2219782</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>16</v>
       </c>
@@ -1880,23 +1915,23 @@
         <v>29</v>
       </c>
       <c r="D70" s="13"/>
-      <c r="E70" s="13" t="s">
-        <v>13</v>
+      <c r="E70" s="13">
+        <v>-393292</v>
       </c>
       <c r="F70" s="13">
-        <v>-393292</v>
+        <v>-437312</v>
       </c>
       <c r="G70" s="13">
-        <v>-437312</v>
+        <v>-765914</v>
       </c>
       <c r="H70" s="13">
-        <v>-765914</v>
+        <v>-1029026</v>
       </c>
       <c r="I70" s="13">
-        <v>-1029026</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2004980</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>17</v>
       </c>
@@ -1905,44 +1940,44 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G71" s="11">
+        <v>-137073</v>
       </c>
       <c r="H71" s="11">
-        <v>-137073</v>
+        <v>-1662714</v>
       </c>
       <c r="I71" s="11">
-        <v>-1662714</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2187116</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
-        <v>0</v>
+        <v>-755077</v>
       </c>
       <c r="F72" s="15">
-        <v>-755077</v>
+        <v>-895999</v>
       </c>
       <c r="G72" s="15">
-        <v>-895999</v>
+        <v>-1700466</v>
       </c>
       <c r="H72" s="15">
-        <v>-1700466</v>
+        <v>-3951644</v>
       </c>
       <c r="I72" s="15">
-        <v>-3951644</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6668051</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>39</v>
       </c>
@@ -1954,31 +1989,31 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>13</v>
+      <c r="E74" s="11">
+        <v>-1436</v>
       </c>
       <c r="F74" s="11">
-        <v>-1436</v>
+        <v>0</v>
       </c>
       <c r="G74" s="11">
-        <v>0</v>
+        <v>-58777</v>
       </c>
       <c r="H74" s="11">
-        <v>-58777</v>
+        <v>-592343</v>
       </c>
       <c r="I74" s="11">
-        <v>-592343</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>16</v>
       </c>
@@ -1987,44 +2022,44 @@
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H75" s="13">
+        <v>-78095</v>
       </c>
       <c r="I75" s="13">
-        <v>-78095</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-513577</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
       <c r="E76" s="17">
-        <v>0</v>
+        <v>-1436</v>
       </c>
       <c r="F76" s="17">
-        <v>-1436</v>
+        <v>0</v>
       </c>
       <c r="G76" s="17">
-        <v>0</v>
+        <v>-58777</v>
       </c>
       <c r="H76" s="17">
-        <v>-58777</v>
+        <v>-670438</v>
       </c>
       <c r="I76" s="17">
-        <v>-670438</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-513577</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="18" t="s">
         <v>41</v>
       </c>
@@ -2036,7 +2071,7 @@
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="16" t="s">
         <v>42</v>
       </c>
@@ -2058,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>23</v>
       </c>
@@ -2066,8 +2101,8 @@
         <v>29</v>
       </c>
       <c r="D79" s="15"/>
-      <c r="E79" s="15" t="s">
-        <v>13</v>
+      <c r="E79" s="15">
+        <v>0</v>
       </c>
       <c r="F79" s="15">
         <v>0</v>
@@ -2075,14 +2110,14 @@
       <c r="G79" s="15">
         <v>0</v>
       </c>
-      <c r="H79" s="15">
-        <v>0</v>
+      <c r="H79" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="I79" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="16" t="s">
         <v>25</v>
       </c>
@@ -2090,8 +2125,8 @@
         <v>29</v>
       </c>
       <c r="D80" s="17"/>
-      <c r="E80" s="17" t="s">
-        <v>13</v>
+      <c r="E80" s="17">
+        <v>0</v>
       </c>
       <c r="F80" s="17">
         <v>0</v>
@@ -2106,29 +2141,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15">
-        <v>0</v>
+        <v>-756513</v>
       </c>
       <c r="F81" s="15">
-        <v>-756513</v>
+        <v>-895999</v>
       </c>
       <c r="G81" s="15">
-        <v>-895999</v>
+        <v>-1759243</v>
       </c>
       <c r="H81" s="15">
-        <v>-1759243</v>
+        <v>-4622082</v>
       </c>
       <c r="I81" s="15">
-        <v>-4622082</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-7181628</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2138,7 +2173,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2148,7 +2183,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2158,7 +2193,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
         <v>43</v>
       </c>
@@ -2180,7 +2215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2190,7 +2225,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>44</v>
       </c>
@@ -2202,7 +2237,7 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>11</v>
       </c>
@@ -2210,71 +2245,71 @@
         <v>29</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="11">
+        <v>48934</v>
+      </c>
+      <c r="F88" s="11">
+        <v>50411</v>
+      </c>
+      <c r="G88" s="11">
+        <v>25673</v>
+      </c>
+      <c r="H88" s="11">
+        <v>70315</v>
+      </c>
+      <c r="I88" s="11">
+        <v>148556</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F88" s="11">
-        <v>48934</v>
-      </c>
-      <c r="G88" s="11">
-        <v>50411</v>
-      </c>
-      <c r="H88" s="11">
-        <v>25673</v>
-      </c>
-      <c r="I88" s="11">
-        <v>70315</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D89" s="13"/>
-      <c r="E89" s="13" t="s">
-        <v>13</v>
+      <c r="E89" s="13">
+        <v>160027</v>
       </c>
       <c r="F89" s="13">
-        <v>160027</v>
+        <v>46720</v>
       </c>
       <c r="G89" s="13">
-        <v>46720</v>
+        <v>138902</v>
       </c>
       <c r="H89" s="13">
-        <v>138902</v>
+        <v>325759</v>
       </c>
       <c r="I89" s="13">
-        <v>325759</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-123579</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="G90" s="11">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>16</v>
       </c>
@@ -2282,23 +2317,23 @@
         <v>29</v>
       </c>
       <c r="D91" s="13"/>
-      <c r="E91" s="13" t="s">
-        <v>13</v>
+      <c r="E91" s="13">
+        <v>126312</v>
       </c>
       <c r="F91" s="13">
-        <v>126312</v>
+        <v>201192</v>
       </c>
       <c r="G91" s="13">
-        <v>201192</v>
+        <v>270937</v>
       </c>
       <c r="H91" s="13">
-        <v>270937</v>
+        <v>53986</v>
       </c>
       <c r="I91" s="13">
-        <v>53986</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>329378</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>17</v>
       </c>
@@ -2307,44 +2342,44 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G92" s="11">
+        <v>234143</v>
       </c>
       <c r="H92" s="11">
-        <v>234143</v>
+        <v>870523</v>
       </c>
       <c r="I92" s="11">
-        <v>870523</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3799917</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>0</v>
+        <v>335273</v>
       </c>
       <c r="F93" s="15">
-        <v>335273</v>
+        <v>298323</v>
       </c>
       <c r="G93" s="15">
-        <v>298323</v>
+        <v>669655</v>
       </c>
       <c r="H93" s="15">
-        <v>669655</v>
+        <v>1320583</v>
       </c>
       <c r="I93" s="15">
-        <v>1320583</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4154272</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>46</v>
       </c>
@@ -2356,31 +2391,31 @@
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
-        <v>13</v>
+      <c r="E95" s="11">
+        <v>-33</v>
       </c>
       <c r="F95" s="11">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="G95" s="11">
-        <v>0</v>
+        <v>15225</v>
       </c>
       <c r="H95" s="11">
-        <v>15225</v>
+        <v>8477</v>
       </c>
       <c r="I95" s="11">
-        <v>8477</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>16</v>
       </c>
@@ -2389,44 +2424,44 @@
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H96" s="13">
+        <v>33634</v>
       </c>
       <c r="I96" s="13">
-        <v>33634</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>146830</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
       <c r="E97" s="17">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="F97" s="17">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="G97" s="17">
-        <v>0</v>
+        <v>15225</v>
       </c>
       <c r="H97" s="17">
-        <v>15225</v>
+        <v>42111</v>
       </c>
       <c r="I97" s="17">
-        <v>42111</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>146830</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="18" t="s">
         <v>48</v>
       </c>
@@ -2438,7 +2473,7 @@
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="16" t="s">
         <v>49</v>
       </c>
@@ -2460,26 +2495,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15">
-        <v>0</v>
+        <v>335240</v>
       </c>
       <c r="F100" s="15">
-        <v>335240</v>
+        <v>298323</v>
       </c>
       <c r="G100" s="15">
-        <v>298323</v>
+        <v>684880</v>
       </c>
       <c r="H100" s="15">
-        <v>684880</v>
+        <v>1362694</v>
       </c>
       <c r="I100" s="15">
-        <v>1362694</v>
+        <v>4301102</v>
       </c>
     </row>
   </sheetData>
